--- a/Arquivo_result.xlsx
+++ b/Arquivo_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,23 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Data Mov.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>Nr. Doc.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Histórico</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
         </is>
       </c>
     </row>
@@ -449,8 +460,1015 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.816,05 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MANUT CROT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>60,00 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.756,05 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.756,05 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>60932</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CRED PIX</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.000,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>51785</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PAG BOLETO</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.071,30 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.684,75 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>71407</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CRED PIX</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.600,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>169630</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PAG BOLETO</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.290,00 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>170176</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PAG BOLETO</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.290,00 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>71430</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ENVIO PIX</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>315,00 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.389,75 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>81516</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ENVIO PIX</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>500,00 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>889,75 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11/03/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>77588</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PG ORG GOV</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>875,44 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11/03/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>279875</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PAG BOLETO</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.290,00 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11/03/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>24,31 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>200900</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DB AT LUZ</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>45,01 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>200900</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DB AT LUZ</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>32,85 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>727220</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>RESG AUTOM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>53,55 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>13/03/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CR LEV JUD</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>18.438,41 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>13/03/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>18.438,41 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>14/03/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>140915</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SAQUE ATM</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.200,00 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14/03/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>140952</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ENVIO PIX</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>15.672,65 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14/03/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>140956</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ENVIO PIX</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>885,63 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14/03/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>136</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TAR SQ ATM</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2,90 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14/03/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>677,23 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15/03/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>677,23 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>18/03/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>677,23 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>677,23 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>21/03/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>677,23 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>22/03/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>677,23 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>25/03/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>250935</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ENVIO PIX</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>124,60 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>25/03/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MANUT CTA</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>55,00 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>25/03/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>497,63 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>26/03/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>497,63 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>27/03/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>497,63 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>28/03/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SALDO DIA</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>497,63 C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Arquivo_result.xlsx
+++ b/Arquivo_result.xlsx
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -648,11 +648,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>71407</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CRED PIX</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -660,13 +660,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.600,00 C</t>
+          <t>1.389,75 C</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -674,11 +674,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>169630</v>
+        <v>71430</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PAG BOLETO</t>
+          <t>ENVIO PIX</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -686,13 +686,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.290,00 D</t>
+          <t>315,00 D</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>170176</v>
+        <v>169630</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -726,11 +726,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>71430</v>
+        <v>71407</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ENVIO PIX</t>
+          <t>CRED PIX</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -738,13 +738,13 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>315,00 D</t>
+          <t>2.600,00 C</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -752,11 +752,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170176</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>PAG BOLETO</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -764,13 +764,13 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.389,75 C</t>
+          <t>1.290,00 D</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -830,11 +830,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>77588</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PG ORG GOV</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -842,13 +842,13 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>875,44 D</t>
+          <t>24,31 C</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -856,11 +856,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>279875</v>
+        <v>77588</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PAG BOLETO</t>
+          <t>PG ORG GOV</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -868,13 +868,13 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.290,00 D</t>
+          <t>875,44 D</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -882,11 +882,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>279875</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>PAG BOLETO</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -894,13 +894,13 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>24,31 C</t>
+          <t>1.290,00 D</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -908,11 +908,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>200900</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DB AT LUZ</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -920,13 +920,13 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>45,01 D</t>
+          <t>0,00 C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>200900</v>
+        <v>727220</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DB AT LUZ</t>
+          <t>RESG AUTOM</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -946,13 +946,13 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>32,85 D</t>
+          <t>53,55 C</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -960,11 +960,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>727220</v>
+        <v>200900</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RESG AUTOM</t>
+          <t>DB AT LUZ</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -972,13 +972,13 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>53,55 C</t>
+          <t>45,01 D</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -986,11 +986,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>200900</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>DB AT LUZ</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -998,13 +998,13 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0,00 C</t>
+          <t>32,85 D</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1064,11 +1064,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>140915</v>
+        <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SAQUE ATM</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1076,13 +1076,13 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.200,00 D</t>
+          <t>677,23 C</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1090,11 +1090,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>140952</v>
+        <v>140915</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ENVIO PIX</t>
+          <t>SAQUE ATM</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1102,13 +1102,13 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>15.672,65 D</t>
+          <t>1.200,00 D</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>140956</v>
+        <v>140952</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>885,63 D</t>
+          <t>15.672,65 D</t>
         </is>
       </c>
     </row>
@@ -1142,11 +1142,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>136</v>
+        <v>140956</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TAR SQ ATM</t>
+          <t>ENVIO PIX</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1154,13 +1154,13 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2,90 D</t>
+          <t>885,63 D</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1168,11 +1168,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>TAR SQ ATM</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1180,13 +1180,13 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>677,23 C</t>
+          <t>2,90 D</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>

--- a/Arquivo_result.xlsx
+++ b/Arquivo_result.xlsx
@@ -458,11 +458,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>28/03/2024</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -478,25 +478,25 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.816,05 C</t>
+          <t>497,63 C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>27/03/2024</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MANUT CROT</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -504,17 +504,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>60,00 D</t>
+          <t>497,63 C</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -530,17 +530,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.756,05 C</t>
+          <t>497,63 C</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>05/03/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -556,25 +556,25 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.756,05 C</t>
+          <t>497,63 C</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>06/03/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60932</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CRED PIX</t>
+          <t>MANUT CTA</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -582,25 +582,25 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.000,00 C</t>
+          <t>55,00 D</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06/03/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51785</v>
+        <v>250935</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PAG BOLETO</t>
+          <t>ENVIO PIX</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -608,17 +608,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.071,30 D</t>
+          <t>124,60 D</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>06/03/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -634,17 +634,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.684,75 C</t>
+          <t>677,23 C</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>07/03/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -660,25 +660,25 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.389,75 C</t>
+          <t>677,23 C</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>07/03/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>71430</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENVIO PIX</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -686,25 +686,25 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>315,00 D</t>
+          <t>677,23 C</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07/03/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>169630</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PAG BOLETO</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -712,25 +712,25 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.290,00 D</t>
+          <t>677,23 C</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>07/03/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>71407</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CRED PIX</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -738,25 +738,25 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.600,00 C</t>
+          <t>677,23 C</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07/03/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>170176</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PAG BOLETO</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -764,25 +764,25 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.290,00 D</t>
+          <t>677,23 C</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>81516</v>
+        <v>136</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ENVIO PIX</t>
+          <t>TAR SQ ATM</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -790,25 +790,25 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>500,00 D</t>
+          <t>2,90 D</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>140956</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>ENVIO PIX</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -816,25 +816,25 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>889,75 C</t>
+          <t>885,63 D</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140952</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>ENVIO PIX</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -842,25 +842,25 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>24,31 C</t>
+          <t>15.672,65 D</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>77588</v>
+        <v>140915</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PG ORG GOV</t>
+          <t>SAQUE ATM</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -868,25 +868,25 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>875,44 D</t>
+          <t>1.200,00 D</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>279875</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PAG BOLETO</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -894,17 +894,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.290,00 D</t>
+          <t>18.438,41 C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -912,7 +912,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>CR LEV JUD</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -920,13 +920,13 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0,00 C</t>
+          <t>18.438,41 C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>727220</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RESG AUTOM</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -946,13 +946,13 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>53,55 C</t>
+          <t>0,00 C</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -960,11 +960,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>200900</v>
+        <v>727220</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DB AT LUZ</t>
+          <t>RESG AUTOM</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -972,13 +972,13 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>45,01 D</t>
+          <t>53,55 C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -998,25 +998,25 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>32,85 D</t>
+          <t>45,01 D</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>200900</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CR LEV JUD</t>
+          <t>DB AT LUZ</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18.438,41 C</t>
+          <t>32,85 D</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1050,25 +1050,25 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>18.438,41 C</t>
+          <t>24,31 C</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>279875</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>PAG BOLETO</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1076,25 +1076,25 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>677,23 C</t>
+          <t>1.290,00 D</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>140915</v>
+        <v>77588</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SAQUE ATM</t>
+          <t>PG ORG GOV</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1102,25 +1102,25 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.200,00 D</t>
+          <t>875,44 D</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>140952</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ENVIO PIX</t>
+          <t>SALDO DIA</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1128,21 +1128,21 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>15.672,65 D</t>
+          <t>889,75 C</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>140956</v>
+        <v>81516</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1154,25 +1154,25 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>885,63 D</t>
+          <t>500,00 D</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>136</v>
+        <v>71430</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TAR SQ ATM</t>
+          <t>ENVIO PIX</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1180,25 +1180,25 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2,90 D</t>
+          <t>315,00 D</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>169630</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>PAG BOLETO</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1206,25 +1206,25 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>677,23 C</t>
+          <t>1.290,00 D</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>71407</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>CRED PIX</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1232,17 +1232,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>677,23 C</t>
+          <t>2.600,00 C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1258,25 +1258,25 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>677,23 C</t>
+          <t>1.389,75 C</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>170176</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>PAG BOLETO</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>677,23 C</t>
+          <t>1.290,00 D</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>06/03/2024</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1310,25 +1310,25 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>677,23 C</t>
+          <t>1.684,75 C</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>06/03/2024</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>250935</v>
+        <v>51785</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ENVIO PIX</t>
+          <t>PAG BOLETO</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1336,25 +1336,25 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>124,60 D</t>
+          <t>4.071,30 D</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>06/03/2024</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>60932</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MANUT CTA</t>
+          <t>CRED PIX</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1362,17 +1362,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>55,00 D</t>
+          <t>4.000,00 C</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>497,63 C</t>
+          <t>1.756,05 C</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>04/03/2024</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1414,25 +1414,25 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>497,63 C</t>
+          <t>1.756,05 C</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27/03/2024</t>
+          <t>04/03/2024</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SALDO DIA</t>
+          <t>MANUT CROT</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>497,63 C</t>
+          <t>60,00 D</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>28/03/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>497,63 C</t>
+          <t>1.816,05 C</t>
         </is>
       </c>
     </row>
